--- a/Sheets_NTA_Poster.xlsx
+++ b/Sheets_NTA_Poster.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/GitHub/ST-Apportionment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB8C73A-1ED0-6E4E-AF5B-133874F42DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFBE262-1694-4A49-8D20-5827E88933A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{6AC8B13C-D75F-E74C-AC67-B39FC1BA89A1}"/>
+    <workbookView xWindow="-29060" yWindow="-2600" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{6AC8B13C-D75F-E74C-AC67-B39FC1BA89A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>ATT</t>
   </si>
@@ -68,29 +69,62 @@
     <t>(-0.0025)*</t>
   </si>
   <si>
-    <t>(3a) Real Revenue, Event-Study Dynamic Aggregation</t>
-  </si>
-  <si>
     <t>(3b) Real Revenue, Group/Cohort Aggregation</t>
   </si>
   <si>
     <t>(3c) Real Revenue, Calendar time Aggregation</t>
   </si>
   <si>
-    <t>(4a) Real Revenue Per Capita, Event-Study Dynamic Aggregation</t>
-  </si>
-  <si>
     <t>(4.b) Real Revenue Per Capita, Group/Cohort Aggregation</t>
   </si>
   <si>
     <t>(4.c) Real Revenue Per Capita, Calendar time Aggregation</t>
+  </si>
+  <si>
+    <t>Real Revenue, Event-Study Dynamic Aggregation</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Std. Deviation</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>SSFA Reforms</t>
+  </si>
+  <si>
+    <t>State CIT Collections</t>
+  </si>
+  <si>
+    <t># Observations</t>
+  </si>
+  <si>
+    <t>Summary Statistics for SSFA Reforms and Real State CIT Tax Collections 1950-2021</t>
+  </si>
+  <si>
+    <t>Summary Statistics for SSFA Reforms and Real State CIT Tax Collections Per Capita 1950-2021</t>
+  </si>
+  <si>
+    <t>Real Revenue Per Capita, Event-Study Dynamic Aggregation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +140,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -185,11 +241,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,9 +366,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -238,6 +379,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -556,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8749CD74-B712-8148-BA1E-0550E7279F35}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D35"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,12 +919,15 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
+      <c r="A25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -747,26 +939,26 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="18">
         <v>-67391990</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>88175330</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>-240212300</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>105428300</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -778,26 +970,26 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="18">
         <v>48270270</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>66985360</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>-83018610</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>179559200</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -809,26 +1001,29 @@
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="18">
         <v>-77156090</v>
       </c>
       <c r="B35" s="11">
         <v>40455380</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>-156447200</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>2134997</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
+      <c r="A39" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -840,22 +1035,22 @@
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
+      <c r="A41" s="31">
         <v>-41.436999999999998</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <v>37.012</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>-113.98</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="16">
         <v>31.105</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -871,22 +1066,22 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
+      <c r="A45" s="14">
         <v>-2.0950000000000002</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="15">
         <v>15.21</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="15">
         <v>-31.908000000000001</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <v>27.716000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -902,32 +1097,201 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
+      <c r="A49" s="14">
         <v>-22.318000000000001</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="15">
         <v>14.05</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="15">
         <v>-49.856000000000002</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="16">
         <v>5.2190000000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A25:D25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316E1D29-F837-3945-B831-1654933CCCA1}">
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="23">
+        <v>28</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="26">
+        <v>3240</v>
+      </c>
+      <c r="D5" s="27">
+        <v>639688500</v>
+      </c>
+      <c r="E5" s="27">
+        <v>258561100</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1228076000</v>
+      </c>
+      <c r="G5" s="27">
+        <v>-114000</v>
+      </c>
+      <c r="H5" s="28">
+        <v>21955300000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="23">
+        <v>28</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="26">
+        <v>3240</v>
+      </c>
+      <c r="D13" s="26">
+        <v>117.34</v>
+      </c>
+      <c r="E13" s="26">
+        <v>92.14</v>
+      </c>
+      <c r="F13" s="26">
+        <v>163.79</v>
+      </c>
+      <c r="G13" s="26">
+        <v>-0.01</v>
+      </c>
+      <c r="H13" s="30">
+        <v>4623.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
